--- a/RRLs/keywords_different techniques or methods for bulk storage volume measurement.xlsx
+++ b/RRLs/keywords_different techniques or methods for bulk storage volume measurement.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gmsuiiteduph-my.sharepoint.com/personal/jaafar_omar0701_g_msuiit_edu_ph/Documents/MSci Documents/Master's Thesis/For final defense/RRL/Sorted/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gmsuiiteduph-my.sharepoint.com/personal/jaafar_omar0701_g_msuiit_edu_ph/Documents/MSci Documents/LaTeX programs/Manuscript_Omar/RRLs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="132" documentId="13_ncr:40009_{86AA1CDD-790C-44AC-8971-7987AC1F84FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1C189FC1-4DFB-40CC-9312-77CD26AF261D}"/>
+  <xr:revisionPtr revIDLastSave="135" documentId="13_ncr:40009_{86AA1CDD-790C-44AC-8971-7987AC1F84FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6B83259B-CFA2-47F8-942E-E1FEB78AFC3F}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="67">
   <si>
     <t>aidCode</t>
   </si>
@@ -108,9 +108,6 @@
   </si>
   <si>
     <t>N/A</t>
-  </si>
-  <si>
-    <t>Springer</t>
   </si>
   <si>
     <t>8iEMOz_Du14J</t>
@@ -204,37 +201,6 @@
   </si>
   <si>
     <t>Assessing loads on silos and other bulk storage structures: Research applied to practice</t>
-  </si>
-  <si>
-    <t>7sLjbyMRLAYJ</t>
-  </si>
-  <si>
-    <t>PA Parilla, K Gross, K Hurst, T Gennett</t>
-  </si>
-  <si>
-    <t>https://scholar.google.com/scholar?cites=444749307101561582&amp;as_sdt=2005&amp;sciodt=0,5&amp;hl=en</t>
-  </si>
-  <si>
-    <t>PA Parilla, K Gross, K Hurst, T Gennett - Applied Physics A, 2016 - Springer</t>
-  </si>
-  <si>
-    <t>https://link.springer.com/article/10.1007/s00339-016-9654-1</t>
-  </si>
-  <si>
-    <t>Applied Physics A</t>
-  </si>
-  <si>
-    <t>https://scholar.google.com/scholar?q=related:7sLjbyMRLAYJ:scholar.google.com/&amp;scioq=different+techniques+or+methods+for+bulk+storage+volume+measurement&amp;hl=en&amp;as_sdt=0,5</t>
-  </si>
-  <si>
-    <t>… measurement methodologies; we present a brief discussion below of these implications and 
-give some possible ways … skeletal volume, V sk or skeletal density ρ sk and sample mass m …</t>
-  </si>
-  <si>
-    <t>Recommended volumetric capacity definitions and protocols for accurate, standardized and unambiguous metrics for hydrogen storage materials</t>
-  </si>
-  <si>
-    <t>https://scholar.google.com/scholar?cluster=444749307101561582&amp;hl=en&amp;as_sdt=0,5</t>
   </si>
   <si>
     <t>3DvJbHP9CewJ</t>
@@ -764,7 +730,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -772,10 +738,6 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="6"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="6" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="7"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="7" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1154,10 +1116,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V6"/>
+  <dimension ref="A1:V5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B3" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1244,52 +1206,52 @@
     </row>
     <row r="2" spans="1:22" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" t="s">
         <v>26</v>
       </c>
-      <c r="B2" t="s">
-        <v>27</v>
-      </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D2">
         <v>34</v>
       </c>
       <c r="E2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" t="s">
         <v>28</v>
-      </c>
-      <c r="F2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G2" t="s">
-        <v>29</v>
       </c>
       <c r="H2" t="s">
         <v>21</v>
       </c>
       <c r="I2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="L2" t="s">
         <v>31</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>32</v>
-      </c>
-      <c r="M2" t="s">
-        <v>33</v>
       </c>
       <c r="N2">
         <v>14</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="P2" t="s">
         <v>22</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="R2" t="s">
         <v>23</v>
@@ -1298,7 +1260,7 @@
         <v>6</v>
       </c>
       <c r="T2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="U2">
         <v>2019</v>
@@ -1306,22 +1268,22 @@
     </row>
     <row r="3" spans="1:22" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" t="s">
         <v>37</v>
       </c>
-      <c r="B3" t="s">
-        <v>38</v>
-      </c>
       <c r="C3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D3">
         <v>268</v>
       </c>
       <c r="E3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G3" t="s">
         <v>24</v>
@@ -1330,37 +1292,37 @@
         <v>24</v>
       </c>
       <c r="I3" t="s">
+        <v>39</v>
+      </c>
+      <c r="K3" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>41</v>
       </c>
       <c r="L3" t="s">
         <v>24</v>
       </c>
       <c r="M3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N3">
         <v>23</v>
       </c>
       <c r="O3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="P3" t="s">
         <v>43</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="Q3" s="1" t="s">
+      <c r="R3" t="s">
         <v>45</v>
-      </c>
-      <c r="R3" t="s">
-        <v>46</v>
       </c>
       <c r="S3">
         <v>5</v>
       </c>
       <c r="T3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="U3">
         <v>2012</v>
@@ -1368,22 +1330,22 @@
     </row>
     <row r="4" spans="1:22" s="3" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>49</v>
-      </c>
       <c r="C4" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D4" s="3">
         <v>37</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>24</v>
@@ -1392,31 +1354,31 @@
         <v>24</v>
       </c>
       <c r="I4" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="K4" s="3" t="s">
         <v>51</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>52</v>
       </c>
       <c r="L4" s="3" t="s">
         <v>24</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N4" s="3">
         <v>49</v>
       </c>
       <c r="O4" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q4" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="P4" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q4" s="4" t="s">
-        <v>55</v>
-      </c>
       <c r="R4" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S4" s="3">
         <v>0</v>
@@ -1428,130 +1390,68 @@
         <v>2005</v>
       </c>
       <c r="V4" s="4" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
     </row>
-    <row r="5" spans="1:22" s="5" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+    <row r="5" spans="1:22" ht="75" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5" t="s">
         <v>56</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="C5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D5">
+        <v>420</v>
+      </c>
+      <c r="E5" t="s">
         <v>57</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="D5" s="5">
-        <v>35</v>
-      </c>
-      <c r="E5" s="5" t="s">
+      <c r="F5" t="s">
+        <v>55</v>
+      </c>
+      <c r="G5" t="s">
         <v>58</v>
       </c>
-      <c r="F5" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="I5" s="5" t="s">
+      <c r="H5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I5" t="s">
         <v>59</v>
       </c>
-      <c r="K5" s="5" t="s">
+      <c r="K5" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="L5" t="s">
         <v>60</v>
       </c>
-      <c r="L5" s="5" t="s">
+      <c r="M5" t="s">
         <v>61</v>
       </c>
-      <c r="M5" s="5" t="s">
+      <c r="N5">
+        <v>99</v>
+      </c>
+      <c r="O5" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="N5" s="5">
-        <v>95</v>
-      </c>
-      <c r="O5" s="6" t="s">
+      <c r="P5" t="s">
         <v>63</v>
       </c>
-      <c r="P5" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q5" s="6" t="s">
+      <c r="Q5" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="R5" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="S5" s="5">
-        <v>6</v>
-      </c>
-      <c r="T5" s="5" t="s">
+      <c r="R5" t="s">
+        <v>21</v>
+      </c>
+      <c r="S5">
+        <v>9</v>
+      </c>
+      <c r="T5" t="s">
         <v>65</v>
       </c>
-      <c r="U5" s="5">
-        <v>2016</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22" ht="75" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>66</v>
-      </c>
-      <c r="B6" t="s">
-        <v>67</v>
-      </c>
-      <c r="C6" t="s">
-        <v>66</v>
-      </c>
-      <c r="D6">
-        <v>420</v>
-      </c>
-      <c r="E6" t="s">
-        <v>68</v>
-      </c>
-      <c r="F6" t="s">
-        <v>66</v>
-      </c>
-      <c r="G6" t="s">
-        <v>69</v>
-      </c>
-      <c r="H6" t="s">
-        <v>21</v>
-      </c>
-      <c r="I6" t="s">
-        <v>70</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="L6" t="s">
-        <v>71</v>
-      </c>
-      <c r="M6" t="s">
-        <v>72</v>
-      </c>
-      <c r="N6">
-        <v>99</v>
-      </c>
-      <c r="O6" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="P6" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q6" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="R6" t="s">
-        <v>21</v>
-      </c>
-      <c r="S6">
-        <v>9</v>
-      </c>
-      <c r="T6" t="s">
-        <v>76</v>
-      </c>
-      <c r="U6">
+      <c r="U5">
         <v>2001</v>
       </c>
     </row>
@@ -1560,8 +1460,7 @@
     <hyperlink ref="K2" r:id="rId1" xr:uid="{5D3CB975-ADC1-4374-982F-A787414F5FCE}"/>
     <hyperlink ref="K3" r:id="rId2" xr:uid="{558CC182-5193-4021-AC79-1031FE27206C}"/>
     <hyperlink ref="K4" r:id="rId3" xr:uid="{9556D653-E520-4FCD-A83D-162E32B0D933}"/>
-    <hyperlink ref="K5" r:id="rId4" xr:uid="{9FA26BF3-3D7A-4098-95F0-A4B11EF1F2FC}"/>
-    <hyperlink ref="K6" r:id="rId5" xr:uid="{C2B133FE-14CF-41CC-A499-EFB82B665287}"/>
+    <hyperlink ref="K5" r:id="rId4" xr:uid="{C2B133FE-14CF-41CC-A499-EFB82B665287}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
